--- a/upload/组-学号-动作.xlsx
+++ b/upload/组-学号-动作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16470" windowHeight="12135"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>task_admin</t>
+    <t>late_admin</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>task_data</t>
-  </si>
-  <si>
     <t>knowing_admin</t>
-  </si>
-  <si>
-    <t>late_admin</t>
   </si>
 </sst>
 </file>
@@ -36,12 +30,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +44,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -86,14 +86,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,128 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,115 +238,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,67 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +447,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +521,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,26 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,168 +564,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1064,1282 +1067,1232 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>19510101</v>
+        <v>206510124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>19510102</v>
+        <v>206510124</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19510103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>19510104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19510101</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>19510101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19510103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19510104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" ht="14.25" spans="2:3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="5"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="6"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="6"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="5"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="6"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="5"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="5"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="5"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="5"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="5"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="6"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="7"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="6"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="5"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="5"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="9"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="5"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="5"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="5"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="5"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="5"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="5"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="4"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="5"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="5"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="4"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="5"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="5"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="4"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="5"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="5"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="4"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="9"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="5"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="5"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="4"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="5"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="5"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="5"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="5"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="5"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="6"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="5"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="5"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="5"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="4"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="5"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="5"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="5"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="4"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="5"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="5"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="5"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="5"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="5"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="5"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="5"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="5"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="6"/>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="5"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="4"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="4"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="5"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="7"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="5"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="5"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="5"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="5"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="4"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="5"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="5"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="5"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" ht="14.25" spans="2:2">
-      <c r="B159" s="10"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160" ht="14.25" spans="2:2">
-      <c r="B160" s="10"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161" ht="14.25" spans="2:2">
-      <c r="B161" s="10"/>
+      <c r="B161" s="11"/>
     </row>
     <row r="162" ht="14.25" spans="2:2">
-      <c r="B162" s="10"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163" ht="14.25" spans="2:2">
-      <c r="B163" s="10"/>
+      <c r="B163" s="11"/>
     </row>
     <row r="164" ht="14.25" spans="2:2">
-      <c r="B164" s="10"/>
+      <c r="B164" s="11"/>
     </row>
     <row r="165" ht="14.25" spans="2:2">
-      <c r="B165" s="10"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" ht="14.25" spans="2:2">
-      <c r="B166" s="10"/>
+      <c r="B166" s="11"/>
     </row>
     <row r="167" ht="14.25" spans="2:2">
-      <c r="B167" s="10"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168" ht="14.25" spans="2:2">
-      <c r="B168" s="10"/>
+      <c r="B168" s="11"/>
     </row>
     <row r="169" ht="14.25" spans="2:2">
-      <c r="B169" s="10"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170" ht="14.25" spans="2:2">
-      <c r="B170" s="10"/>
+      <c r="B170" s="11"/>
     </row>
     <row r="171" ht="14.25" spans="2:2">
-      <c r="B171" s="10"/>
+      <c r="B171" s="11"/>
     </row>
     <row r="172" ht="14.25" spans="2:2">
-      <c r="B172" s="10"/>
+      <c r="B172" s="11"/>
     </row>
     <row r="173" ht="14.25" spans="2:2">
-      <c r="B173" s="10"/>
+      <c r="B173" s="11"/>
     </row>
     <row r="174" ht="14.25" spans="2:2">
-      <c r="B174" s="10"/>
+      <c r="B174" s="11"/>
     </row>
     <row r="175" ht="14.25" spans="2:2">
-      <c r="B175" s="10"/>
+      <c r="B175" s="11"/>
     </row>
     <row r="176" ht="14.25" spans="2:2">
-      <c r="B176" s="10"/>
+      <c r="B176" s="11"/>
     </row>
     <row r="177" ht="14.25" spans="2:2">
-      <c r="B177" s="10"/>
+      <c r="B177" s="11"/>
     </row>
     <row r="178" ht="14.25" spans="2:2">
-      <c r="B178" s="10"/>
+      <c r="B178" s="11"/>
     </row>
     <row r="179" ht="14.25" spans="2:2">
-      <c r="B179" s="10"/>
+      <c r="B179" s="11"/>
     </row>
     <row r="180" ht="14.25" spans="2:2">
-      <c r="B180" s="10"/>
+      <c r="B180" s="11"/>
     </row>
     <row r="181" ht="14.25" spans="2:2">
-      <c r="B181" s="10"/>
+      <c r="B181" s="11"/>
     </row>
     <row r="182" ht="14.25" spans="2:2">
-      <c r="B182" s="10"/>
+      <c r="B182" s="11"/>
     </row>
     <row r="183" ht="14.25" spans="2:2">
-      <c r="B183" s="10"/>
+      <c r="B183" s="11"/>
     </row>
     <row r="184" ht="14.25" spans="2:2">
-      <c r="B184" s="10"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185" ht="14.25" spans="2:2">
-      <c r="B185" s="10"/>
+      <c r="B185" s="11"/>
     </row>
     <row r="186" ht="14.25" spans="2:2">
-      <c r="B186" s="10"/>
+      <c r="B186" s="11"/>
     </row>
     <row r="187" ht="14.25" spans="2:2">
-      <c r="B187" s="10"/>
+      <c r="B187" s="11"/>
     </row>
     <row r="188" ht="14.25" spans="2:2">
-      <c r="B188" s="10"/>
+      <c r="B188" s="11"/>
     </row>
     <row r="189" ht="14.25" spans="2:2">
-      <c r="B189" s="10"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190" ht="14.25" spans="2:2">
-      <c r="B190" s="10"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191" ht="14.25" spans="2:2">
-      <c r="B191" s="10"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192" ht="14.25" spans="2:2">
-      <c r="B192" s="10"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193" ht="14.25" spans="2:2">
-      <c r="B193" s="10"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194" ht="14.25" spans="2:2">
-      <c r="B194" s="10"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195" ht="14.25" spans="2:2">
-      <c r="B195" s="10"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196" ht="14.25" spans="2:2">
-      <c r="B196" s="10"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197" ht="14.25" spans="2:2">
-      <c r="B197" s="10"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198" ht="14.25" spans="2:2">
-      <c r="B198" s="10"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199" ht="14.25" spans="2:2">
-      <c r="B199" s="10"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200" ht="14.25" spans="2:2">
-      <c r="B200" s="10"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201" ht="14.25" spans="2:2">
-      <c r="B201" s="10"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202" ht="14.25" spans="2:2">
-      <c r="B202" s="10"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203" ht="14.25" spans="2:2">
-      <c r="B203" s="10"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204" ht="14.25" spans="2:2">
-      <c r="B204" s="10"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205" ht="14.25" spans="2:2">
-      <c r="B205" s="10"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206" ht="14.25" spans="2:2">
-      <c r="B206" s="10"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207" ht="14.25" spans="2:2">
-      <c r="B207" s="10"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208" ht="14.25" spans="2:2">
-      <c r="B208" s="10"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209" ht="14.25" spans="2:2">
-      <c r="B209" s="10"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210" ht="14.25" spans="2:2">
-      <c r="B210" s="10"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211" ht="14.25" spans="2:2">
-      <c r="B211" s="10"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212" ht="14.25" spans="2:2">
-      <c r="B212" s="10"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213" ht="14.25" spans="2:2">
-      <c r="B213" s="10"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214" ht="14.25" spans="2:2">
-      <c r="B214" s="10"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215" ht="14.25" spans="2:2">
-      <c r="B215" s="10"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216" ht="14.25" spans="2:2">
-      <c r="B216" s="10"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217" ht="14.25" spans="2:2">
-      <c r="B217" s="10"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218" ht="14.25" spans="2:2">
-      <c r="B218" s="10"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219" ht="14.25" spans="2:2">
-      <c r="B219" s="10"/>
+      <c r="B219" s="11"/>
     </row>
     <row r="220" ht="14.25" spans="2:2">
-      <c r="B220" s="10"/>
+      <c r="B220" s="11"/>
     </row>
     <row r="221" ht="14.25" spans="2:2">
-      <c r="B221" s="10"/>
+      <c r="B221" s="11"/>
     </row>
     <row r="222" ht="14.25" spans="2:2">
-      <c r="B222" s="10"/>
+      <c r="B222" s="11"/>
     </row>
     <row r="223" ht="14.25" spans="2:2">
-      <c r="B223" s="10"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224" ht="14.25" spans="2:2">
-      <c r="B224" s="10"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225" ht="14.25" spans="2:2">
-      <c r="B225" s="10"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226" ht="14.25" spans="2:2">
-      <c r="B226" s="10"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227" ht="14.25" spans="2:2">
-      <c r="B227" s="10"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228" ht="14.25" spans="2:2">
-      <c r="B228" s="10"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229" ht="14.25" spans="2:2">
-      <c r="B229" s="10"/>
+      <c r="B229" s="11"/>
     </row>
     <row r="230" ht="14.25" spans="2:2">
-      <c r="B230" s="10"/>
+      <c r="B230" s="11"/>
     </row>
     <row r="231" ht="14.25" spans="2:2">
-      <c r="B231" s="10"/>
+      <c r="B231" s="11"/>
     </row>
     <row r="232" ht="14.25" spans="2:2">
-      <c r="B232" s="10"/>
+      <c r="B232" s="11"/>
     </row>
     <row r="233" ht="14.25" spans="2:2">
-      <c r="B233" s="10"/>
+      <c r="B233" s="11"/>
     </row>
     <row r="234" ht="14.25" spans="2:2">
-      <c r="B234" s="10"/>
+      <c r="B234" s="11"/>
     </row>
     <row r="235" ht="14.25" spans="2:2">
-      <c r="B235" s="10"/>
+      <c r="B235" s="11"/>
     </row>
     <row r="236" ht="14.25" spans="2:2">
-      <c r="B236" s="10"/>
+      <c r="B236" s="11"/>
     </row>
     <row r="237" ht="14.25" spans="2:2">
-      <c r="B237" s="10"/>
+      <c r="B237" s="11"/>
     </row>
     <row r="238" ht="14.25" spans="2:2">
-      <c r="B238" s="10"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239" ht="14.25" spans="2:2">
-      <c r="B239" s="10"/>
+      <c r="B239" s="11"/>
     </row>
     <row r="240" ht="14.25" spans="2:2">
-      <c r="B240" s="10"/>
+      <c r="B240" s="11"/>
     </row>
     <row r="241" ht="14.25" spans="2:2">
-      <c r="B241" s="10"/>
+      <c r="B241" s="11"/>
     </row>
     <row r="242" ht="14.25" spans="2:2">
-      <c r="B242" s="10"/>
+      <c r="B242" s="11"/>
     </row>
     <row r="243" ht="14.25" spans="2:2">
-      <c r="B243" s="10"/>
+      <c r="B243" s="11"/>
     </row>
     <row r="244" ht="14.25" spans="2:2">
-      <c r="B244" s="10"/>
+      <c r="B244" s="11"/>
     </row>
     <row r="245" ht="14.25" spans="2:2">
-      <c r="B245" s="10"/>
+      <c r="B245" s="11"/>
     </row>
     <row r="246" ht="14.25" spans="2:2">
-      <c r="B246" s="10"/>
+      <c r="B246" s="11"/>
     </row>
     <row r="247" ht="14.25" spans="2:2">
-      <c r="B247" s="10"/>
+      <c r="B247" s="11"/>
     </row>
     <row r="248" ht="14.25" spans="2:2">
-      <c r="B248" s="10"/>
+      <c r="B248" s="11"/>
     </row>
     <row r="249" ht="14.25" spans="2:2">
-      <c r="B249" s="10"/>
+      <c r="B249" s="11"/>
     </row>
     <row r="250" ht="14.25" spans="2:2">
-      <c r="B250" s="10"/>
+      <c r="B250" s="11"/>
     </row>
     <row r="251" ht="14.25" spans="2:2">
-      <c r="B251" s="10"/>
+      <c r="B251" s="11"/>
     </row>
     <row r="252" ht="14.25" spans="2:2">
-      <c r="B252" s="10"/>
+      <c r="B252" s="11"/>
     </row>
     <row r="253" ht="14.25" spans="2:2">
-      <c r="B253" s="10"/>
+      <c r="B253" s="11"/>
     </row>
     <row r="254" ht="14.25" spans="2:2">
-      <c r="B254" s="10"/>
+      <c r="B254" s="11"/>
     </row>
     <row r="255" ht="14.25" spans="2:2">
-      <c r="B255" s="10"/>
+      <c r="B255" s="11"/>
     </row>
     <row r="256" ht="14.25" spans="2:2">
-      <c r="B256" s="10"/>
+      <c r="B256" s="11"/>
     </row>
     <row r="257" ht="14.25" spans="2:2">
-      <c r="B257" s="10"/>
+      <c r="B257" s="11"/>
     </row>
     <row r="258" ht="14.25" spans="2:2">
-      <c r="B258" s="10"/>
+      <c r="B258" s="11"/>
     </row>
     <row r="259" ht="14.25" spans="2:2">
-      <c r="B259" s="10"/>
+      <c r="B259" s="11"/>
     </row>
     <row r="260" ht="14.25" spans="2:2">
-      <c r="B260" s="10"/>
+      <c r="B260" s="11"/>
     </row>
     <row r="261" ht="14.25" spans="2:2">
-      <c r="B261" s="10"/>
+      <c r="B261" s="11"/>
     </row>
     <row r="262" ht="14.25" spans="2:2">
-      <c r="B262" s="10"/>
+      <c r="B262" s="11"/>
     </row>
     <row r="263" ht="14.25" spans="2:2">
-      <c r="B263" s="10"/>
+      <c r="B263" s="11"/>
     </row>
     <row r="264" ht="14.25" spans="2:2">
-      <c r="B264" s="10"/>
+      <c r="B264" s="11"/>
     </row>
     <row r="265" ht="14.25" spans="2:2">
-      <c r="B265" s="10"/>
+      <c r="B265" s="11"/>
     </row>
     <row r="266" ht="14.25" spans="2:2">
-      <c r="B266" s="10"/>
+      <c r="B266" s="11"/>
     </row>
     <row r="267" ht="14.25" spans="2:2">
-      <c r="B267" s="10"/>
+      <c r="B267" s="11"/>
     </row>
     <row r="268" ht="14.25" spans="2:2">
-      <c r="B268" s="10"/>
+      <c r="B268" s="11"/>
     </row>
     <row r="269" ht="14.25" spans="2:2">
-      <c r="B269" s="10"/>
+      <c r="B269" s="11"/>
     </row>
     <row r="270" ht="14.25" spans="2:2">
-      <c r="B270" s="10"/>
+      <c r="B270" s="11"/>
     </row>
     <row r="271" ht="14.25" spans="2:2">
-      <c r="B271" s="10"/>
+      <c r="B271" s="11"/>
     </row>
     <row r="272" ht="14.25" spans="2:2">
-      <c r="B272" s="10"/>
+      <c r="B272" s="11"/>
     </row>
     <row r="273" ht="14.25" spans="2:2">
-      <c r="B273" s="10"/>
+      <c r="B273" s="11"/>
     </row>
     <row r="274" ht="14.25" spans="2:2">
-      <c r="B274" s="10"/>
+      <c r="B274" s="11"/>
     </row>
     <row r="275" ht="14.25" spans="2:2">
-      <c r="B275" s="10"/>
+      <c r="B275" s="11"/>
     </row>
     <row r="276" ht="14.25" spans="2:2">
-      <c r="B276" s="10"/>
+      <c r="B276" s="11"/>
     </row>
     <row r="277" ht="14.25" spans="2:2">
-      <c r="B277" s="10"/>
+      <c r="B277" s="11"/>
     </row>
     <row r="278" ht="14.25" spans="2:2">
-      <c r="B278" s="10"/>
+      <c r="B278" s="11"/>
     </row>
     <row r="279" ht="14.25" spans="2:2">
-      <c r="B279" s="10"/>
+      <c r="B279" s="11"/>
     </row>
     <row r="280" ht="14.25" spans="2:2">
-      <c r="B280" s="10"/>
+      <c r="B280" s="11"/>
     </row>
     <row r="281" ht="14.25" spans="2:2">
-      <c r="B281" s="10"/>
+      <c r="B281" s="11"/>
     </row>
     <row r="282" ht="14.25" spans="2:2">
-      <c r="B282" s="10"/>
+      <c r="B282" s="11"/>
     </row>
     <row r="283" ht="14.25" spans="2:2">
-      <c r="B283" s="10"/>
+      <c r="B283" s="11"/>
     </row>
     <row r="284" ht="14.25" spans="2:2">
-      <c r="B284" s="10"/>
+      <c r="B284" s="11"/>
     </row>
     <row r="285" ht="14.25" spans="2:2">
-      <c r="B285" s="10"/>
+      <c r="B285" s="11"/>
     </row>
     <row r="286" ht="14.25" spans="2:2">
-      <c r="B286" s="10"/>
+      <c r="B286" s="11"/>
     </row>
     <row r="287" ht="14.25" spans="2:2">
-      <c r="B287" s="10"/>
+      <c r="B287" s="11"/>
     </row>
     <row r="288" ht="14.25" spans="2:2">
-      <c r="B288" s="10"/>
+      <c r="B288" s="11"/>
     </row>
     <row r="289" ht="14.25" spans="2:2">
-      <c r="B289" s="10"/>
+      <c r="B289" s="11"/>
     </row>
     <row r="290" ht="14.25" spans="2:2">
-      <c r="B290" s="10"/>
+      <c r="B290" s="11"/>
     </row>
     <row r="291" ht="14.25" spans="2:2">
-      <c r="B291" s="10"/>
+      <c r="B291" s="11"/>
     </row>
     <row r="292" ht="14.25" spans="2:2">
-      <c r="B292" s="10"/>
+      <c r="B292" s="11"/>
     </row>
     <row r="293" ht="14.25" spans="2:2">
-      <c r="B293" s="10"/>
+      <c r="B293" s="11"/>
     </row>
     <row r="294" ht="14.25" spans="2:2">
-      <c r="B294" s="10"/>
+      <c r="B294" s="11"/>
     </row>
     <row r="295" ht="14.25" spans="2:2">
-      <c r="B295" s="10"/>
+      <c r="B295" s="11"/>
     </row>
     <row r="296" ht="14.25" spans="2:2">
-      <c r="B296" s="10"/>
+      <c r="B296" s="11"/>
     </row>
     <row r="297" ht="14.25" spans="2:2">
-      <c r="B297" s="10"/>
+      <c r="B297" s="11"/>
     </row>
     <row r="298" ht="14.25" spans="2:2">
-      <c r="B298" s="10"/>
+      <c r="B298" s="11"/>
     </row>
     <row r="299" ht="14.25" spans="2:2">
-      <c r="B299" s="10"/>
+      <c r="B299" s="11"/>
     </row>
     <row r="300" ht="14.25" spans="2:2">
-      <c r="B300" s="10"/>
+      <c r="B300" s="11"/>
     </row>
     <row r="301" ht="14.25" spans="2:2">
-      <c r="B301" s="10"/>
+      <c r="B301" s="11"/>
     </row>
     <row r="302" ht="14.25" spans="2:2">
-      <c r="B302" s="10"/>
+      <c r="B302" s="11"/>
     </row>
     <row r="303" ht="14.25" spans="2:2">
-      <c r="B303" s="10"/>
+      <c r="B303" s="11"/>
     </row>
     <row r="304" ht="14.25" spans="2:2">
-      <c r="B304" s="10"/>
+      <c r="B304" s="11"/>
     </row>
     <row r="305" ht="14.25" spans="2:2">
-      <c r="B305" s="10"/>
+      <c r="B305" s="11"/>
     </row>
     <row r="306" ht="14.25" spans="2:2">
-      <c r="B306" s="10"/>
+      <c r="B306" s="11"/>
     </row>
     <row r="307" ht="14.25" spans="2:2">
-      <c r="B307" s="10"/>
+      <c r="B307" s="11"/>
     </row>
     <row r="308" ht="14.25" spans="2:2">
-      <c r="B308" s="10"/>
+      <c r="B308" s="11"/>
     </row>
     <row r="309" ht="14.25" spans="2:2">
-      <c r="B309" s="10"/>
+      <c r="B309" s="11"/>
     </row>
     <row r="310" ht="14.25" spans="2:2">
-      <c r="B310" s="10"/>
+      <c r="B310" s="11"/>
     </row>
     <row r="311" ht="14.25" spans="2:2">
-      <c r="B311" s="10"/>
+      <c r="B311" s="11"/>
     </row>
     <row r="312" ht="14.25" spans="2:2">
-      <c r="B312" s="10"/>
+      <c r="B312" s="11"/>
     </row>
     <row r="313" ht="14.25" spans="2:2">
-      <c r="B313" s="10"/>
+      <c r="B313" s="11"/>
     </row>
     <row r="314" ht="14.25" spans="2:2">
-      <c r="B314" s="10"/>
+      <c r="B314" s="11"/>
     </row>
     <row r="315" ht="14.25" spans="2:2">
-      <c r="B315" s="10"/>
+      <c r="B315" s="11"/>
     </row>
     <row r="316" ht="14.25" spans="2:2">
-      <c r="B316" s="10"/>
+      <c r="B316" s="11"/>
     </row>
     <row r="317" ht="14.25" spans="2:2">
-      <c r="B317" s="10"/>
+      <c r="B317" s="11"/>
     </row>
     <row r="318" ht="14.25" spans="2:2">
-      <c r="B318" s="10"/>
+      <c r="B318" s="11"/>
     </row>
     <row r="319" ht="14.25" spans="2:2">
-      <c r="B319" s="10"/>
+      <c r="B319" s="11"/>
     </row>
     <row r="320" ht="14.25" spans="2:2">
-      <c r="B320" s="10"/>
+      <c r="B320" s="11"/>
     </row>
     <row r="321" ht="14.25" spans="2:2">
-      <c r="B321" s="10"/>
+      <c r="B321" s="11"/>
     </row>
     <row r="322" ht="14.25" spans="2:2">
-      <c r="B322" s="10"/>
+      <c r="B322" s="11"/>
     </row>
     <row r="323" ht="14.25" spans="2:2">
-      <c r="B323" s="10"/>
+      <c r="B323" s="11"/>
     </row>
     <row r="324" ht="14.25" spans="2:2">
-      <c r="B324" s="10"/>
+      <c r="B324" s="11"/>
     </row>
     <row r="325" ht="14.25" spans="2:2">
-      <c r="B325" s="10"/>
+      <c r="B325" s="11"/>
     </row>
     <row r="326" ht="14.25" spans="2:2">
-      <c r="B326" s="10"/>
+      <c r="B326" s="11"/>
     </row>
     <row r="327" ht="14.25" spans="2:2">
-      <c r="B327" s="10"/>
+      <c r="B327" s="11"/>
     </row>
     <row r="328" ht="14.25" spans="2:2">
-      <c r="B328" s="10"/>
+      <c r="B328" s="11"/>
     </row>
     <row r="329" ht="14.25" spans="2:2">
-      <c r="B329" s="10"/>
+      <c r="B329" s="11"/>
     </row>
     <row r="330" ht="14.25" spans="2:2">
-      <c r="B330" s="10"/>
+      <c r="B330" s="11"/>
     </row>
     <row r="331" ht="14.25" spans="2:2">
-      <c r="B331" s="10"/>
+      <c r="B331" s="11"/>
     </row>
     <row r="332" ht="14.25" spans="2:2">
-      <c r="B332" s="10"/>
+      <c r="B332" s="11"/>
     </row>
     <row r="333" ht="14.25" spans="2:2">
-      <c r="B333" s="10"/>
+      <c r="B333" s="11"/>
     </row>
     <row r="334" ht="14.25" spans="2:2">
-      <c r="B334" s="10"/>
+      <c r="B334" s="11"/>
     </row>
     <row r="335" ht="14.25" spans="2:2">
-      <c r="B335" s="10"/>
+      <c r="B335" s="11"/>
     </row>
     <row r="336" ht="14.25" spans="2:2">
-      <c r="B336" s="10"/>
+      <c r="B336" s="11"/>
     </row>
     <row r="337" ht="14.25" spans="2:2">
-      <c r="B337" s="10"/>
+      <c r="B337" s="11"/>
     </row>
     <row r="338" ht="14.25" spans="2:2">
-      <c r="B338" s="10"/>
+      <c r="B338" s="11"/>
     </row>
     <row r="339" ht="14.25" spans="2:2">
-      <c r="B339" s="10"/>
+      <c r="B339" s="11"/>
     </row>
     <row r="340" ht="14.25" spans="2:2">
-      <c r="B340" s="10"/>
+      <c r="B340" s="11"/>
     </row>
     <row r="341" ht="14.25" spans="2:2">
-      <c r="B341" s="10"/>
+      <c r="B341" s="11"/>
     </row>
     <row r="342" ht="14.25" spans="2:2">
-      <c r="B342" s="10"/>
+      <c r="B342" s="11"/>
     </row>
     <row r="343" ht="14.25" spans="2:2">
-      <c r="B343" s="10"/>
+      <c r="B343" s="11"/>
     </row>
     <row r="344" ht="14.25" spans="2:2">
-      <c r="B344" s="10"/>
+      <c r="B344" s="11"/>
     </row>
     <row r="345" ht="14.25" spans="2:2">
-      <c r="B345" s="10"/>
+      <c r="B345" s="11"/>
     </row>
     <row r="346" ht="14.25" spans="2:2">
-      <c r="B346" s="10"/>
+      <c r="B346" s="11"/>
     </row>
     <row r="347" ht="14.25" spans="2:2">
-      <c r="B347" s="10"/>
+      <c r="B347" s="11"/>
     </row>
     <row r="348" ht="14.25" spans="2:2">
-      <c r="B348" s="10"/>
+      <c r="B348" s="11"/>
     </row>
     <row r="349" ht="14.25" spans="2:2">
-      <c r="B349" s="10"/>
+      <c r="B349" s="11"/>
     </row>
     <row r="350" ht="14.25" spans="2:2">
-      <c r="B350" s="10"/>
+      <c r="B350" s="11"/>
     </row>
     <row r="351" ht="14.25" spans="2:2">
-      <c r="B351" s="10"/>
+      <c r="B351" s="11"/>
     </row>
     <row r="352" ht="14.25" spans="2:2">
-      <c r="B352" s="10"/>
+      <c r="B352" s="11"/>
     </row>
     <row r="353" ht="14.25" spans="2:2">
-      <c r="B353" s="10"/>
+      <c r="B353" s="11"/>
     </row>
     <row r="354" ht="14.25" spans="2:2">
-      <c r="B354" s="10"/>
+      <c r="B354" s="11"/>
     </row>
     <row r="355" ht="14.25" spans="2:2">
-      <c r="B355" s="10"/>
+      <c r="B355" s="11"/>
     </row>
     <row r="356" ht="14.25" spans="2:2">
-      <c r="B356" s="10"/>
+      <c r="B356" s="11"/>
     </row>
     <row r="357" ht="14.25" spans="2:2">
-      <c r="B357" s="10"/>
+      <c r="B357" s="11"/>
     </row>
     <row r="358" ht="14.25" spans="2:2">
-      <c r="B358" s="10"/>
+      <c r="B358" s="11"/>
     </row>
     <row r="359" ht="14.25" spans="2:2">
-      <c r="B359" s="10"/>
+      <c r="B359" s="11"/>
     </row>
     <row r="360" ht="14.25" spans="2:2">
-      <c r="B360" s="10"/>
+      <c r="B360" s="11"/>
     </row>
     <row r="361" ht="14.25" spans="2:2">
-      <c r="B361" s="10"/>
+      <c r="B361" s="11"/>
     </row>
     <row r="362" ht="14.25" spans="2:2">
-      <c r="B362" s="10"/>
+      <c r="B362" s="11"/>
     </row>
     <row r="363" ht="14.25" spans="2:2">
-      <c r="B363" s="10"/>
+      <c r="B363" s="11"/>
     </row>
     <row r="364" ht="14.25" spans="2:2">
-      <c r="B364" s="10"/>
+      <c r="B364" s="11"/>
     </row>
     <row r="365" ht="14.25" spans="2:2">
-      <c r="B365" s="10"/>
+      <c r="B365" s="11"/>
     </row>
     <row r="366" ht="14.25" spans="2:2">
-      <c r="B366" s="10"/>
+      <c r="B366" s="11"/>
     </row>
     <row r="367" ht="14.25" spans="2:2">
-      <c r="B367" s="10"/>
+      <c r="B367" s="11"/>
     </row>
     <row r="368" ht="14.25" spans="2:2">
-      <c r="B368" s="10"/>
+      <c r="B368" s="11"/>
     </row>
     <row r="369" ht="14.25" spans="2:2">
-      <c r="B369" s="10"/>
+      <c r="B369" s="11"/>
     </row>
     <row r="370" ht="14.25" spans="2:2">
-      <c r="B370" s="10"/>
+      <c r="B370" s="11"/>
     </row>
     <row r="371" ht="14.25" spans="2:2">
-      <c r="B371" s="10"/>
+      <c r="B371" s="11"/>
     </row>
     <row r="372" ht="14.25" spans="2:2">
-      <c r="B372" s="10"/>
+      <c r="B372" s="11"/>
     </row>
     <row r="373" ht="14.25" spans="2:2">
-      <c r="B373" s="10"/>
+      <c r="B373" s="11"/>
     </row>
     <row r="374" ht="14.25" spans="2:2">
-      <c r="B374" s="10"/>
+      <c r="B374" s="11"/>
     </row>
     <row r="375" ht="14.25" spans="2:2">
-      <c r="B375" s="10"/>
+      <c r="B375" s="11"/>
     </row>
     <row r="376" ht="14.25" spans="2:2">
-      <c r="B376" s="10"/>
+      <c r="B376" s="11"/>
     </row>
     <row r="377" ht="14.25" spans="2:2">
-      <c r="B377" s="10"/>
+      <c r="B377" s="11"/>
     </row>
     <row r="378" ht="14.25" spans="2:2">
-      <c r="B378" s="10"/>
+      <c r="B378" s="11"/>
     </row>
     <row r="379" ht="14.25" spans="2:2">
-      <c r="B379" s="10"/>
+      <c r="B379" s="11"/>
     </row>
     <row r="380" ht="14.25" spans="2:2">
-      <c r="B380" s="10"/>
+      <c r="B380" s="11"/>
     </row>
     <row r="381" ht="14.25" spans="2:2">
-      <c r="B381" s="10"/>
+      <c r="B381" s="11"/>
     </row>
     <row r="382" ht="14.25" spans="2:2">
-      <c r="B382" s="10"/>
+      <c r="B382" s="11"/>
     </row>
     <row r="383" ht="14.25" spans="2:2">
-      <c r="B383" s="10"/>
+      <c r="B383" s="11"/>
     </row>
     <row r="384" ht="14.25" spans="2:2">
-      <c r="B384" s="10"/>
+      <c r="B384" s="11"/>
     </row>
     <row r="385" ht="14.25" spans="2:2">
-      <c r="B385" s="10"/>
+      <c r="B385" s="11"/>
     </row>
     <row r="386" ht="14.25" spans="2:2">
-      <c r="B386" s="10"/>
+      <c r="B386" s="11"/>
     </row>
     <row r="387" ht="14.25" spans="2:2">
-      <c r="B387" s="10"/>
+      <c r="B387" s="11"/>
     </row>
     <row r="388" ht="14.25" spans="2:2">
-      <c r="B388" s="10"/>
+      <c r="B388" s="11"/>
     </row>
     <row r="389" ht="14.25" spans="2:2">
-      <c r="B389" s="10"/>
+      <c r="B389" s="11"/>
     </row>
     <row r="390" ht="14.25" spans="2:2">
-      <c r="B390" s="10"/>
+      <c r="B390" s="11"/>
     </row>
     <row r="391" ht="14.25" spans="2:2">
-      <c r="B391" s="10"/>
+      <c r="B391" s="11"/>
     </row>
     <row r="392" ht="14.25" spans="2:2">
-      <c r="B392" s="10"/>
+      <c r="B392" s="11"/>
     </row>
     <row r="393" ht="14.25" spans="2:2">
-      <c r="B393" s="10"/>
+      <c r="B393" s="11"/>
     </row>
     <row r="394" ht="14.25" spans="2:2">
-      <c r="B394" s="10"/>
+      <c r="B394" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/upload/组-学号-动作.xlsx
+++ b/upload/组-学号-动作.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
-    <t>late_admin</t>
+    <t>task_admin</t>
   </si>
   <si>
     <t>+</t>
@@ -24,15 +24,18 @@
   <si>
     <t>knowing_admin</t>
   </si>
+  <si>
+    <t>late_admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -85,6 +88,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -94,6 +112,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -114,11 +155,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,45 +211,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,53 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,43 +452,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,6 +472,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,8 +503,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +538,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1056,7 @@
   <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>206510124</v>
+        <v>19510145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,27 +1081,77 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>206510124</v>
+        <v>19510145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19510144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19510144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16350203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16350203</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16510121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16510121</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2"/>

--- a/upload/组-学号-动作.xlsx
+++ b/upload/组-学号-动作.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
   <si>
     <t>task_admin</t>
   </si>
@@ -25,7 +25,7 @@
     <t>knowing_admin</t>
   </si>
   <si>
-    <t>late_admin</t>
+    <t>20653W111</t>
   </si>
 </sst>
 </file>
@@ -33,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -86,6 +86,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -96,6 +103,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -103,15 +139,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,112 +225,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -479,8 +494,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,46 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>19510145</v>
+        <v>19510112</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>19510145</v>
+        <v>19510112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>19510144</v>
+        <v>206510225</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>19510144</v>
+        <v>206510225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>16350203</v>
+        <v>206510242</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>16350203</v>
+        <v>206510242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>16510121</v>
+        <v>206510102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1144,30 +1144,58 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>16510121</v>
+        <v>206510102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>206510105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>206510105</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2"/>
